--- a/Manuscript/charts/Final Charts - Approaches.xlsx
+++ b/Manuscript/charts/Final Charts - Approaches.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad\git\RoadNetworks\Manuscript\charts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="7935" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="7935" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ConStaInd" sheetId="13" r:id="rId1"/>
@@ -18,7 +23,7 @@
     <sheet name="Sheet1" sheetId="23" r:id="rId9"/>
     <sheet name="Sheet2" sheetId="24" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -85,8 +90,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,12 +128,30 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -146,12 +169,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -235,6 +260,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -319,6 +345,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -403,16 +430,811 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="77414400"/>
-        <c:axId val="77416320"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="383680000"/>
+        <c:axId val="384516712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77414400"/>
+        <c:axId val="383680000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Prediction Time (minutes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="384516712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="384516712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CRPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="383680000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ConStaCor</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConStaCor!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ConStaCor!$B$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ConStaCor!$B$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>591.69351893662508</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>591.69351893662508</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>591.69351893662508</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>591.69351893662508</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>591.69351893662508</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>591.69351893662508</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>591.69351893662508</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>591.69351893662508</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConStaCor!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ConStaCor!$B$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ConStaCor!$B$19:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>296.54638124716718</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>305.46258213875734</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>309.46835464241036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>336.39450477913454</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>361.17730252274231</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>414.80996384491658</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>463.32393257943767</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>509.58266524792873</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ConStaCor!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ConStaCor!$B$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ConStaCor!$B$20:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>328.80171854627685</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>355.30316098229434</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>386.82955494980735</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>415.99392136909455</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>473.7707106621682</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>591.18647538720143</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>590.59097669565949</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>591.81569151461508</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="384526904"/>
+        <c:axId val="384527296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="384526904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Prediction Time (minutes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="384527296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="384527296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="384526904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>DisStaCor</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DisStaCor!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>DisStaCor!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DisStaCor!$B$11:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>811.09002019563889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>811.09002019563889</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>811.09002019563889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>811.09002019563889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>811.09002019563889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>811.09002019563889</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>811.09002019563889</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>811.09002019563889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DisStaCor!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>DisStaCor!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DisStaCor!$B$12:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>368.86556799780095</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>389.01293780704975</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>423.86892888995169</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>426.8750522063396</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>476.37505733341663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>591.03073635581131</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>630.07271995482506</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>658.74443395357991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DisStaCor!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>DisStaCor!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DisStaCor!$B$13:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>602.26537966379829</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>645.5203874181999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>671.26409500400609</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>697.47394949836848</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>749.63381888132653</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>810.27452319383531</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>810.66827486603825</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>810.79430926649093</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="384528080"/>
+        <c:axId val="384528472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="384528080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -431,21 +1253,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77416320"/>
+        <c:crossAx val="384528472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77416320"/>
+        <c:axId val="384528472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -465,10 +1291,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77414400"/>
+        <c:crossAx val="384528080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -476,20 +1305,33 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -502,23 +1344,26 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>ConStaCor</a:t>
+              <a:t>DisStaCor</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ConStaCor!$A$18</c:f>
+              <c:f>DisStaCor!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -532,7 +1377,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ConStaCor!$B$17:$I$17</c:f>
+              <c:f>DisStaCor!$B$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -565,44 +1410,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ConStaCor!$B$18:$I$18</c:f>
+              <c:f>DisStaCor!$B$18:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>591.69351893662508</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>591.69351893662508</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>591.69351893662508</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>591.69351893662508</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>591.69351893662508</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>591.69351893662508</c:v>
+                  <c:v>1091.8041743046356</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1091.8041743046356</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1091.8041743046356</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1091.8041743046356</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1091.8041743046356</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1091.8041743046356</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>591.69351893662508</c:v>
+                  <c:v>1091.8041743046356</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>591.69351893662508</c:v>
+                  <c:v>1091.8041743046356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>ConStaCor!$A$19</c:f>
+              <c:f>DisStaCor!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -616,7 +1462,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ConStaCor!$B$17:$I$17</c:f>
+              <c:f>DisStaCor!$B$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -649,44 +1495,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ConStaCor!$B$19:$I$19</c:f>
+              <c:f>DisStaCor!$B$19:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>296.54638124716718</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>305.46258213875734</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>309.46835464241036</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>336.39450477913454</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>361.17730252274231</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>414.80996384491658</c:v>
+                  <c:v>470.12499172388027</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>505.84683824992226</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>558.79594082150686</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>561.11019356083807</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>630.36362170234486</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>780.92507090810216</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>463.32393257943767</c:v>
+                  <c:v>833.76416790721078</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>509.58266524792873</c:v>
+                  <c:v>877.81597589033481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>ConStaCor!$A$20</c:f>
+              <c:f>DisStaCor!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -700,7 +1547,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ConStaCor!$B$17:$I$17</c:f>
+              <c:f>DisStaCor!$B$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -733,47 +1580,57 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ConStaCor!$B$20:$I$20</c:f>
+              <c:f>DisStaCor!$B$20:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>328.80171854627685</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>355.30316098229434</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>386.82955494980735</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>415.99392136909455</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>473.7707106621682</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>591.18647538720143</c:v>
+                  <c:v>689.08483170689249</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>753.51059847063061</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>798.38140698843586</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>844.96743174468281</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>957.5458324287282</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1091.5311206213573</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>590.59097669565949</c:v>
+                  <c:v>1092.1965564554184</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>591.81569151461508</c:v>
+                  <c:v>1092.1530847895758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="51508736"/>
-        <c:axId val="51510656"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="384529256"/>
+        <c:axId val="384529648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51508736"/>
+        <c:axId val="384529256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -792,21 +1649,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51510656"/>
+        <c:crossAx val="384529648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51510656"/>
+        <c:axId val="384529648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -826,10 +1687,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51508736"/>
+        <c:crossAx val="384529256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -837,8 +1701,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -848,9 +1715,19 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -863,23 +1740,26 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>DisStaCor</a:t>
+              <a:t>DisTimCor</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>DisStaCor!$A$11</c:f>
+              <c:f>DisTimCor!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -893,7 +1773,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>DisStaCor!$B$10:$I$10</c:f>
+              <c:f>DisTimCor!$B$10:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -926,44 +1806,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DisStaCor!$B$11:$I$11</c:f>
+              <c:f>DisTimCor!$B$11:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>811.09002019563889</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>811.09002019563889</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>811.09002019563889</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>811.09002019563889</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>811.09002019563889</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>811.09002019563889</c:v>
+                  <c:v>606.66653536309707</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>606.66653536309707</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>606.66653536309707</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>606.66653536309707</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>606.66653536309707</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>606.66653536309707</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>811.09002019563889</c:v>
+                  <c:v>606.66653536309707</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>811.09002019563889</c:v>
+                  <c:v>606.66653536309707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>DisStaCor!$A$12</c:f>
+              <c:f>DisTimCor!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -977,7 +1858,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>DisStaCor!$B$10:$I$10</c:f>
+              <c:f>DisTimCor!$B$10:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1010,44 +1891,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DisStaCor!$B$12:$I$12</c:f>
+              <c:f>DisTimCor!$B$12:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>368.86556799780095</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>389.01293780704975</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>423.86892888995169</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>426.8750522063396</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>476.37505733341663</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>591.03073635581131</c:v>
+                  <c:v>243.92100879990966</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>316.55684174202185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>326.47438408109707</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>349.82711658394356</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>384.55884413408938</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>472.4658364439793</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>630.07271995482506</c:v>
+                  <c:v>520.65114753735634</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>658.74443395357991</c:v>
+                  <c:v>533.10311103878337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>DisStaCor!$A$13</c:f>
+              <c:f>DisTimCor!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1061,7 +1943,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>DisStaCor!$B$10:$I$10</c:f>
+              <c:f>DisTimCor!$B$10:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1094,47 +1976,57 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DisStaCor!$B$13:$I$13</c:f>
+              <c:f>DisTimCor!$B$13:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>602.26537966379829</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>645.5203874181999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>671.26409500400609</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>697.47394949836848</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>749.63381888132653</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>810.27452319383531</c:v>
+                  <c:v>310.3288072868209</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>341.43522886054853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>375.88091576892788</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>406.7066503078272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>465.2788839287474</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>607.10758612682764</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>810.66827486603825</c:v>
+                  <c:v>606.96129478627211</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>810.79430926649093</c:v>
+                  <c:v>607.1933689388851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="51570176"/>
-        <c:axId val="51572096"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="384530432"/>
+        <c:axId val="384530824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51570176"/>
+        <c:axId val="384530432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1153,21 +2045,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51572096"/>
+        <c:crossAx val="384530824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51572096"/>
+        <c:axId val="384530824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1187,10 +2083,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51570176"/>
+        <c:crossAx val="384530432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1198,8 +2097,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1209,9 +2111,19 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1224,23 +2136,26 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>DisStaCor</a:t>
+              <a:t>DisTimCor</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>DisStaCor!$A$18</c:f>
+              <c:f>DisTimCor!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1254,7 +2169,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>DisStaCor!$B$17:$I$17</c:f>
+              <c:f>DisTimCor!$B$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1287,44 +2202,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DisStaCor!$B$18:$I$18</c:f>
+              <c:f>DisTimCor!$B$18:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1091.8041743046356</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1091.8041743046356</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1091.8041743046356</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1091.8041743046356</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1091.8041743046356</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1091.8041743046356</c:v>
+                  <c:v>816.63075519113829</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>816.63075519113829</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>816.63075519113829</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>816.63075519113829</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>816.63075519113829</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>816.63075519113829</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1091.8041743046356</c:v>
+                  <c:v>816.63075519113829</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1091.8041743046356</c:v>
+                  <c:v>816.63075519113829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>DisStaCor!$A$19</c:f>
+              <c:f>DisTimCor!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1338,7 +2254,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>DisStaCor!$B$17:$I$17</c:f>
+              <c:f>DisTimCor!$B$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1371,44 +2287,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DisStaCor!$B$19:$I$19</c:f>
+              <c:f>DisTimCor!$B$19:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>470.12499172388027</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>505.84683824992226</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>558.79594082150686</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>561.11019356083807</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>630.36362170234486</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>780.92507090810216</c:v>
+                  <c:v>310.88117783881012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>411.62969649355676</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>430.39852221412349</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>459.8337618577076</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>508.86775454401499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>624.2660391938557</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>833.76416790721078</c:v>
+                  <c:v>688.96852228032094</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>877.81597589033481</c:v>
+                  <c:v>710.39147132992639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>DisStaCor!$A$20</c:f>
+              <c:f>DisTimCor!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1422,7 +2339,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>DisStaCor!$B$17:$I$17</c:f>
+              <c:f>DisTimCor!$B$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1455,47 +2372,57 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DisStaCor!$B$20:$I$20</c:f>
+              <c:f>DisTimCor!$B$20:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>689.08483170689249</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>753.51059847063061</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>798.38140698843586</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>844.96743174468281</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>957.5458324287282</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1091.5311206213573</c:v>
+                  <c:v>355.064197883021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>398.55451299788803</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>447.0615017624433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>492.71212785975376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>594.32464891714358</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>817.8423544784423</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1092.1965564554184</c:v>
+                  <c:v>817.74636632577642</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1092.1530847895758</c:v>
+                  <c:v>817.89931598103465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="51897472"/>
-        <c:axId val="51899392"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="384531608"/>
+        <c:axId val="384532000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51897472"/>
+        <c:axId val="384531608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1514,21 +2441,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51899392"/>
+        <c:crossAx val="384532000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51899392"/>
+        <c:axId val="384532000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1548,10 +2479,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51897472"/>
+        <c:crossAx val="384531608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1559,730 +2493,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>DisTimCor</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>DisTimCor!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>DisTimCor!$B$10:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>DisTimCor!$B$11:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>606.66653536309707</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>606.66653536309707</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>606.66653536309707</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>606.66653536309707</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>606.66653536309707</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>606.66653536309707</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>606.66653536309707</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>606.66653536309707</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>DisTimCor!$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SH</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>DisTimCor!$B$10:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>DisTimCor!$B$12:$I$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>243.92100879990966</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>316.55684174202185</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>326.47438408109707</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>349.82711658394356</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>384.55884413408938</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>472.4658364439793</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>520.65114753735634</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>533.10311103878337</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>DisTimCor!$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>DisTimCor!$B$10:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>DisTimCor!$B$13:$I$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>310.3288072868209</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>341.43522886054853</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>375.88091576892788</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>406.7066503078272</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>465.2788839287474</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>607.10758612682764</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>606.96129478627211</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>607.1933689388851</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="52249728"/>
-        <c:axId val="52251648"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="52249728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Prediction Time (minutes)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52251648"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="52251648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>CRPS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52249728"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>DisTimCor</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>DisTimCor!$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>DisTimCor!$B$17:$I$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>DisTimCor!$B$18:$I$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>816.63075519113829</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>816.63075519113829</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>816.63075519113829</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>816.63075519113829</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>816.63075519113829</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>816.63075519113829</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>816.63075519113829</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>816.63075519113829</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>DisTimCor!$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SH</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>DisTimCor!$B$17:$I$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>DisTimCor!$B$19:$I$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>310.88117783881012</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>411.62969649355676</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>430.39852221412349</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>459.8337618577076</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>508.86775454401499</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>624.2660391938557</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>688.96852228032094</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>710.39147132992639</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>DisTimCor!$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>DisTimCor!$B$17:$I$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>DisTimCor!$B$20:$I$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>355.064197883021</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>398.55451299788803</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>447.0615017624433</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>492.71212785975376</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>594.32464891714358</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>817.8423544784423</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>817.74636632577642</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>817.89931598103465</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="52282112"/>
-        <c:axId val="52284032"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="52282112"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Prediction Time (minutes)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52284032"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="52284032"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Seconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52282112"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2294,7 +2509,17 @@
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2313,12 +2538,15 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2333,6 +2561,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Run Time'!$B$10:$G$10</c:f>
@@ -2401,6 +2630,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Run Time'!$B$10:$G$10</c:f>
@@ -2469,6 +2699,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Run Time'!$B$10:$G$10</c:f>
@@ -2523,28 +2754,42 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="52314880"/>
-        <c:axId val="52316416"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="152277216"/>
+        <c:axId val="152277608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52314880"/>
+        <c:axId val="152277216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52316416"/>
+        <c:crossAx val="152277608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52316416"/>
+        <c:axId val="152277608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2564,10 +2809,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52314880"/>
+        <c:crossAx val="152277216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2575,8 +2823,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2588,7 +2839,17 @@
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2607,12 +2868,15 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2627,6 +2891,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Run Time'!$B$16:$G$16</c:f>
@@ -2695,6 +2960,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Run Time'!$B$16:$G$16</c:f>
@@ -2763,6 +3029,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Run Time'!$B$16:$G$16</c:f>
@@ -2817,28 +3084,42 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="52330496"/>
-        <c:axId val="52332032"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="152278392"/>
+        <c:axId val="152278784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52330496"/>
+        <c:axId val="152278392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52332032"/>
+        <c:crossAx val="152278784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52332032"/>
+        <c:axId val="152278784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2858,10 +3139,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52330496"/>
+        <c:crossAx val="152278392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2869,8 +3153,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2882,7 +3169,17 @@
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2901,12 +3198,15 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2921,6 +3221,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Run Time'!$B$22:$G$22</c:f>
@@ -2989,6 +3290,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Run Time'!$B$22:$G$22</c:f>
@@ -3057,6 +3359,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Run Time'!$B$22:$G$22</c:f>
@@ -3111,28 +3414,42 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="52362240"/>
-        <c:axId val="53805824"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="152279568"/>
+        <c:axId val="152279960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52362240"/>
+        <c:axId val="152279568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53805824"/>
+        <c:crossAx val="152279960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53805824"/>
+        <c:axId val="152279960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3152,10 +3469,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52362240"/>
+        <c:crossAx val="152279568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3163,8 +3483,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3176,8 +3499,17 @@
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:style val="1"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -3195,6 +3527,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3209,6 +3542,19 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct25">
+              <a:fgClr>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Run Time'!$S$10:$X$10</c:f>
@@ -3277,6 +3623,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Run Time'!$S$10:$X$10</c:f>
@@ -3331,19 +3678,29 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="300"/>
         <c:overlap val="100"/>
-        <c:axId val="53835264"/>
-        <c:axId val="53836800"/>
+        <c:axId val="152280744"/>
+        <c:axId val="152281136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="53835264"/>
+        <c:axId val="152280744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3355,17 +3712,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53836800"/>
+        <c:crossAx val="152281136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53836800"/>
+        <c:axId val="152281136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3385,8 +3744,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3398,7 +3760,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53835264"/>
+        <c:crossAx val="152280744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3415,6 +3777,7 @@
           <c:h val="0.16743438320209975"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -3437,6 +3800,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3448,13 +3813,25 @@
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3469,6 +3846,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$10:$I$10</c:f>
@@ -3550,6 +3928,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$10:$I$10</c:f>
@@ -3631,6 +4010,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$10:$I$10</c:f>
@@ -3712,6 +4092,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$10:$I$10</c:f>
@@ -3793,6 +4174,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$10:$I$10</c:f>
@@ -3874,6 +4256,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$10:$I$10</c:f>
@@ -3955,6 +4338,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'All Approaches'!$B$17:$I$17</c:f>
@@ -3989,33 +4373,49 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="53960064"/>
-        <c:axId val="53970048"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="152281920"/>
+        <c:axId val="152282312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="53960064"/>
+        <c:axId val="152281920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53970048"/>
+        <c:crossAx val="152282312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53970048"/>
+        <c:axId val="152282312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53960064"/>
+        <c:crossAx val="152281920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4023,8 +4423,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4036,7 +4439,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4054,12 +4467,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4143,6 +4558,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4227,6 +4643,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4311,16 +4728,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="95359360"/>
-        <c:axId val="95446144"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="384517496"/>
+        <c:axId val="384517888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95359360"/>
+        <c:axId val="384517496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4343,22 +4770,25 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95446144"/>
+        <c:crossAx val="384517888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95446144"/>
+        <c:axId val="384517888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -4377,20 +4807,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95359360"/>
+        <c:crossAx val="384517496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4402,13 +4836,25 @@
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4423,6 +4869,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$19:$I$19</c:f>
@@ -4504,6 +4951,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$19:$I$19</c:f>
@@ -4585,6 +5033,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$19:$I$19</c:f>
@@ -4666,6 +5115,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$19:$I$19</c:f>
@@ -4747,6 +5197,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$19:$I$19</c:f>
@@ -4828,6 +5279,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$19:$I$19</c:f>
@@ -4909,6 +5361,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'All Approaches'!$B$19:$I$19</c:f>
@@ -4976,33 +5429,49 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="53990528"/>
-        <c:axId val="53992064"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="152283096"/>
+        <c:axId val="152283488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="53990528"/>
+        <c:axId val="152283096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53992064"/>
+        <c:crossAx val="152283488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53992064"/>
+        <c:axId val="152283488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53990528"/>
+        <c:crossAx val="152283096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5010,8 +5479,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -5023,8 +5495,17 @@
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:style val="1"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -5042,6 +5523,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5056,6 +5538,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$10:$D$10</c:f>
@@ -5107,6 +5590,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$10:$D$10</c:f>
@@ -5158,6 +5642,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$10:$D$10</c:f>
@@ -5209,6 +5694,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$10:$D$10</c:f>
@@ -5260,6 +5746,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$10:$D$10</c:f>
@@ -5311,6 +5798,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$10:$D$10</c:f>
@@ -5362,6 +5850,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$10:$D$10</c:f>
@@ -5399,15 +5888,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="91968256"/>
-        <c:axId val="92598272"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="152284272"/>
+        <c:axId val="152284664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91968256"/>
+        <c:axId val="152284272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -5426,9 +5924,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -5440,17 +5940,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92598272"/>
+        <c:crossAx val="152284664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92598272"/>
+        <c:axId val="152284664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -5470,8 +5972,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -5483,7 +5988,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91968256"/>
+        <c:crossAx val="152284272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5500,6 +6005,7 @@
           <c:h val="0.26657589676290466"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -5522,6 +6028,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -5533,8 +6041,17 @@
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:style val="1"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -5552,6 +6069,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5566,6 +6084,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$B$10:$F$10</c:f>
@@ -5628,6 +6147,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$B$10:$F$10</c:f>
@@ -5690,6 +6210,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$B$10:$F$10</c:f>
@@ -5752,6 +6273,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$B$10:$F$10</c:f>
@@ -5814,6 +6336,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$B$10:$F$10</c:f>
@@ -5876,6 +6399,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$B$10:$F$10</c:f>
@@ -5938,6 +6462,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$B$10:$F$10</c:f>
@@ -5986,15 +6511,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="92126208"/>
-        <c:axId val="92128000"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="152285448"/>
+        <c:axId val="152285840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92126208"/>
+        <c:axId val="152285448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -6013,8 +6547,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -6026,17 +6563,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92128000"/>
+        <c:crossAx val="152285840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92128000"/>
+        <c:axId val="152285840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -6056,8 +6595,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -6069,7 +6611,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92126208"/>
+        <c:crossAx val="152285448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6086,6 +6628,7 @@
           <c:h val="0.24805737824438612"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -6108,6 +6651,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -6119,7 +6664,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6137,12 +6692,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -6226,6 +6783,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6310,6 +6868,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -6394,16 +6953,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="100500224"/>
-        <c:axId val="100502528"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="384518672"/>
+        <c:axId val="384519064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100500224"/>
+        <c:axId val="384518672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -6421,22 +6990,25 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100502528"/>
+        <c:crossAx val="384519064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100502528"/>
+        <c:axId val="384519064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -6455,20 +7027,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100500224"/>
+        <c:crossAx val="384518672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -6480,7 +7056,17 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6498,12 +7084,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -6587,6 +7175,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6671,6 +7260,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -6755,16 +7345,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="125151488"/>
-        <c:axId val="125372288"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="384519848"/>
+        <c:axId val="384520240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="125151488"/>
+        <c:axId val="384519848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -6782,22 +7382,25 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125372288"/>
+        <c:crossAx val="384520240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125372288"/>
+        <c:axId val="384520240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -6816,20 +7419,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125151488"/>
+        <c:crossAx val="384519848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -6841,8 +7448,17 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:style val="1"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -6859,6 +7475,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -6939,6 +7556,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7020,6 +7638,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -7101,16 +7720,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="127212160"/>
-        <c:axId val="127235200"/>
+        <c:smooth val="0"/>
+        <c:axId val="384521024"/>
+        <c:axId val="384521416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127212160"/>
+        <c:axId val="384521024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -7128,10 +7758,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -7143,18 +7774,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127235200"/>
+        <c:crossAx val="384521416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127235200"/>
+        <c:axId val="384521416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="600"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -7173,9 +7806,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -7187,7 +7822,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127212160"/>
+        <c:crossAx val="384521024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7204,6 +7839,7 @@
           <c:h val="0.11226268591426072"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -7226,6 +7862,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -7237,7 +7875,17 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -7255,12 +7903,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -7344,6 +7994,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7428,6 +8079,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -7512,16 +8164,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="41982592"/>
-        <c:axId val="41984768"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="384522200"/>
+        <c:axId val="384522592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="41982592"/>
+        <c:axId val="384522200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -7539,22 +8201,25 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41984768"/>
+        <c:crossAx val="384522592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41984768"/>
+        <c:axId val="384522592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -7573,20 +8238,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41982592"/>
+        <c:crossAx val="384522200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -7598,7 +8267,17 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -7616,12 +8295,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -7705,6 +8386,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7789,6 +8471,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -7873,16 +8556,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="41994496"/>
-        <c:axId val="41996672"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="384523376"/>
+        <c:axId val="384523768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="41994496"/>
+        <c:axId val="384523376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -7900,22 +8593,25 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41996672"/>
+        <c:crossAx val="384523768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41996672"/>
+        <c:axId val="384523768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -7934,20 +8630,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41994496"/>
+        <c:crossAx val="384523376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -7959,7 +8659,17 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -7977,12 +8687,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -8066,6 +8778,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -8150,6 +8863,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -8234,16 +8948,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="51341184"/>
-        <c:axId val="51343360"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="384524552"/>
+        <c:axId val="384524944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51341184"/>
+        <c:axId val="384524552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -8261,22 +8985,25 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51343360"/>
+        <c:crossAx val="384524944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51343360"/>
+        <c:axId val="384524944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -8295,20 +9022,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51341184"/>
+        <c:crossAx val="384524552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -8320,7 +9051,17 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -8338,12 +9079,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -8427,6 +9170,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -8511,6 +9255,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -8595,16 +9340,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="51464064"/>
-        <c:axId val="51478528"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="384525728"/>
+        <c:axId val="384526120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51464064"/>
+        <c:axId val="384525728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -8622,22 +9377,25 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51478528"/>
+        <c:crossAx val="384526120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51478528"/>
+        <c:axId val="384526120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -8656,20 +9414,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51464064"/>
+        <c:crossAx val="384525728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -9432,7 +10194,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9464,9 +10226,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9498,6 +10261,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -9673,16 +10437,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0</v>
       </c>
@@ -9708,7 +10472,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -9737,7 +10501,7 @@
         <v>450.53983306685956</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -9766,7 +10530,7 @@
         <v>392.14629887366499</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -9795,7 +10559,7 @@
         <v>450.60780938239748</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0</v>
       </c>
@@ -9821,7 +10585,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -9850,7 +10614,7 @@
         <v>591.69351893662497</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -9879,7 +10643,7 @@
         <v>509.58791708339032</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -9915,16 +10679,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -9941,7 +10705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -9961,7 +10725,7 @@
         <v>276.95989473658602</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -9981,7 +10745,7 @@
         <v>273.9028710563166</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -10001,7 +10765,7 @@
         <v>116.83983158641722</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -10021,7 +10785,7 @@
         <v>268.82136535582265</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -10041,7 +10805,7 @@
         <v>319.71219131633381</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -10061,7 +10825,7 @@
         <v>283.186240313653</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -10088,16 +10852,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0</v>
       </c>
@@ -10123,7 +10887,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -10152,7 +10916,7 @@
         <v>451.2339909735303</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -10181,7 +10945,7 @@
         <v>392.17276322437237</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -10210,7 +10974,7 @@
         <v>451.22278715240282</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0</v>
       </c>
@@ -10236,7 +11000,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -10265,7 +11029,7 @@
         <v>591.8873034615134</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -10294,7 +11058,7 @@
         <v>509.86622282379221</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -10330,16 +11094,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -10368,7 +11132,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -10397,7 +11161,7 @@
         <v>408.74208007519468</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -10426,7 +11190,7 @@
         <v>345.57894131983727</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -10455,7 +11219,7 @@
         <v>408.28061594106288</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0</v>
       </c>
@@ -10481,7 +11245,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -10510,7 +11274,7 @@
         <v>535.55709742325826</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -10539,7 +11303,7 @@
         <v>456.42486875272857</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -10575,16 +11339,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0</v>
       </c>
@@ -10610,7 +11374,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -10639,7 +11403,7 @@
         <v>448.82173942281412</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -10668,7 +11432,7 @@
         <v>389.84282702043203</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -10697,7 +11461,7 @@
         <v>448.88836986428129</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0</v>
       </c>
@@ -10723,7 +11487,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -10752,7 +11516,7 @@
         <v>591.69351893662508</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -10781,7 +11545,7 @@
         <v>509.58266524792873</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -10817,16 +11581,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0</v>
       </c>
@@ -10852,7 +11616,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -10881,7 +11645,7 @@
         <v>811.09002019563889</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -10910,7 +11674,7 @@
         <v>658.74443395357991</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -10939,7 +11703,7 @@
         <v>810.79430926649093</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0</v>
       </c>
@@ -10965,7 +11729,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -10994,7 +11758,7 @@
         <v>1091.8041743046356</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -11023,7 +11787,7 @@
         <v>877.81597589033481</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -11059,16 +11823,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22:I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0</v>
       </c>
@@ -11094,7 +11858,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -11123,7 +11887,7 @@
         <v>606.66653536309707</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -11152,7 +11916,7 @@
         <v>533.10311103878337</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -11181,7 +11945,7 @@
         <v>607.1933689388851</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0</v>
       </c>
@@ -11207,7 +11971,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -11236,7 +12000,7 @@
         <v>816.63075519113829</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -11265,7 +12029,7 @@
         <v>710.39147132992639</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -11294,7 +12058,7 @@
         <v>817.89931598103465</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>B18/B11</f>
         <v>1.34609494275529</v>
@@ -11328,7 +12092,7 @@
         <v>1.34609494275529</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23">
         <f t="shared" ref="B23:I24" si="1">B19/B12</f>
         <v>1.2745157925032542</v>
@@ -11362,7 +12126,7 @@
         <v>1.3325592303254168</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24">
         <f t="shared" si="1"/>
         <v>1.144154811109281</v>
@@ -11403,19 +12167,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+    <sheetView topLeftCell="M9" workbookViewId="0">
+      <selection activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>4</v>
       </c>
@@ -11453,7 +12217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -11497,7 +12261,7 @@
         <v>20.971052</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -11541,7 +12305,7 @@
         <v>13.365028000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -11564,7 +12328,7 @@
         <v>54.685147000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>4</v>
       </c>
@@ -11584,7 +12348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -11607,7 +12371,7 @@
         <v>32.044570999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -11630,7 +12394,7 @@
         <v>13.365028000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -11653,7 +12417,7 @@
         <v>15.655319</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>4</v>
       </c>
@@ -11673,7 +12437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -11696,7 +12460,7 @@
         <v>78.721714000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -11719,7 +12483,7 @@
         <v>34.270905999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -11749,19 +12513,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0</v>
       </c>
@@ -11787,7 +12551,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -11816,7 +12580,7 @@
         <v>392.14629887366499</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -11845,7 +12609,7 @@
         <v>392.17276322437237</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -11874,7 +12638,7 @@
         <v>345.57894131983727</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -11903,7 +12667,7 @@
         <v>389.84282702043203</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -11932,7 +12696,7 @@
         <v>658.74443395357991</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -11961,7 +12725,7 @@
         <v>533.10311103878337</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -11990,7 +12754,7 @@
         <v>859.53385054191176</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0</v>
       </c>
@@ -12016,7 +12780,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -12045,7 +12809,7 @@
         <v>509.58791708339032</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -12074,7 +12838,7 @@
         <v>509.86622282379221</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -12103,7 +12867,7 @@
         <v>456.42486875272857</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -12132,7 +12896,7 @@
         <v>509.58266524792873</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -12161,7 +12925,7 @@
         <v>877.81597589033481</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -12190,7 +12954,7 @@
         <v>710.39147132992639</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -12226,16 +12990,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0</v>
       </c>
@@ -12246,7 +13010,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -12260,7 +13024,7 @@
         <v>392.14629887366499</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -12274,7 +13038,7 @@
         <v>392.17276322437237</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -12288,7 +13052,7 @@
         <v>345.57894131983727</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -12302,7 +13066,7 @@
         <v>389.84282702043203</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -12316,7 +13080,7 @@
         <v>658.74443395357991</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -12330,7 +13094,7 @@
         <v>533.10311103878337</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
